--- a/_site/Data/OtherHardshipsCC.xlsx
+++ b/_site/Data/OtherHardshipsCC.xlsx
@@ -1,26 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abautist/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmyescanlar/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{988B9C2F-D592-8249-A598-FC2D970EF40B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9446A115-BA78-FA44-9094-10023966B6E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="15920" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="30">
   <si>
     <t>Question</t>
   </si>
@@ -45,10 +56,32 @@
 • Not applicable</t>
   </si>
   <si>
+    <t>Provided by Urban Institute
+Modified from the U.S. Census Bureau's Household Pulse Survey</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://www.census.gov/data/experimental-data-products/household-pulse-survey.html</t>
+    </r>
+  </si>
+  <si>
+    <t>9, 13</t>
+  </si>
+  <si>
     <t>In the last 30 days, you did not have enough money to pay for food to feed your household.</t>
   </si>
   <si>
     <t>In the last 30 days, you were evicted from the place you rented.</t>
+  </si>
+  <si>
+    <t>Provided by Urban Institute</t>
   </si>
   <si>
     <t xml:space="preserve">In the last 30 days, your mortgage (for the home you lived in and owned) was foreclosed on. </t>
@@ -81,6 +114,9 @@
     <t>If you rent the place you currently live, have you received an eviction notice in the last 30 days?</t>
   </si>
   <si>
+    <t>RAPID Team Developed</t>
+  </si>
+  <si>
     <t>If you own the home where you currently live, how worried are you about your mortgage being foreclosed on in the next month?</t>
   </si>
   <si>
@@ -99,14 +135,17 @@
     <t>Free response</t>
   </si>
   <si>
-    <t>9, 13</t>
+    <t>What would you like policymakers to know about evictions and foreclosures?</t>
+  </si>
+  <si>
+    <t>Occurrence EC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -123,8 +162,15 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color indexed="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -137,8 +183,14 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -186,17 +238,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -222,11 +263,70 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -234,12 +334,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -253,13 +347,36 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1422,10 +1539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScale="75" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1434,11 +1551,11 @@
     <col min="2" max="2" width="37.5" style="1" customWidth="1"/>
     <col min="3" max="4" width="25" style="1" customWidth="1"/>
     <col min="5" max="5" width="20.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16" style="1" customWidth="1"/>
     <col min="7" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1454,204 +1571,308 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="19" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:6" ht="68" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="6" t="s">
+      <c r="C2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="68" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="68" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="102" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="119" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
         <v>23</v>
       </c>
+      <c r="B13" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="1">
+        <v>73</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="6" t="s">
-        <v>23</v>
+    <row r="14" spans="1:6" ht="109.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="1">
+        <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="6" t="s">
-        <v>23</v>
+    <row r="15" spans="1:6" ht="85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="1">
+        <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+    <row r="16" spans="1:6" ht="204" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="16"/>
+      <c r="E16" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="6" t="s">
-        <v>23</v>
+      <c r="F16" s="1">
+        <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="102" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="119" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="109.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="204" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="10" t="s">
+    <row r="17" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="6" t="s">
-        <v>23</v>
+      <c r="D17" s="14"/>
+      <c r="E17" s="18">
+        <v>27</v>
+      </c>
+      <c r="F17" s="1">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{1E2B7A57-1F65-C641-8F28-832C9EA7F01C}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{3B19CD60-FD56-274A-B953-AB97D758603B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>

--- a/_site/Data/OtherHardshipsCC.xlsx
+++ b/_site/Data/OtherHardshipsCC.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmyescanlar/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9446A115-BA78-FA44-9094-10023966B6E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{351CDF0A-DBF7-144D-92E0-CBE253B39328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="15920" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="29">
   <si>
     <t>Question</t>
   </si>
@@ -136,9 +136,6 @@
   </si>
   <si>
     <t>What would you like policymakers to know about evictions and foreclosures?</t>
-  </si>
-  <si>
-    <t>Occurrence EC</t>
   </si>
 </sst>
 </file>
@@ -1541,8 +1538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScale="75" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:F17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1571,9 +1568,7 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="19" t="s">
-        <v>29</v>
-      </c>
+      <c r="F1" s="19"/>
     </row>
     <row r="2" spans="1:6" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
@@ -1591,9 +1586,6 @@
       <c r="E2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="1">
-        <v>73</v>
-      </c>
     </row>
     <row r="3" spans="1:6" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
@@ -1611,9 +1603,6 @@
       <c r="E3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="1">
-        <v>73</v>
-      </c>
     </row>
     <row r="4" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
@@ -1629,9 +1618,6 @@
       <c r="E4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="1">
-        <v>73</v>
-      </c>
     </row>
     <row r="5" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
@@ -1647,9 +1633,6 @@
       <c r="E5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="1">
-        <v>73</v>
-      </c>
     </row>
     <row r="6" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
@@ -1665,9 +1648,6 @@
       <c r="E6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="1">
-        <v>73</v>
-      </c>
     </row>
     <row r="7" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
@@ -1683,9 +1663,6 @@
       <c r="E7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="1">
-        <v>73</v>
-      </c>
     </row>
     <row r="8" spans="1:6" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
@@ -1701,9 +1678,6 @@
       <c r="E8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="1">
-        <v>73</v>
-      </c>
     </row>
     <row r="9" spans="1:6" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
@@ -1719,9 +1693,6 @@
       <c r="E9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="1">
-        <v>73</v>
-      </c>
     </row>
     <row r="10" spans="1:6" ht="102" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -1737,9 +1708,6 @@
       <c r="E10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="1">
-        <v>73</v>
-      </c>
     </row>
     <row r="11" spans="1:6" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
@@ -1755,9 +1723,6 @@
       <c r="E11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="1">
-        <v>73</v>
-      </c>
     </row>
     <row r="12" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
@@ -1773,9 +1738,6 @@
       <c r="E12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="1">
-        <v>73</v>
-      </c>
     </row>
     <row r="13" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
@@ -1791,9 +1753,6 @@
       <c r="E13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="1">
-        <v>73</v>
-      </c>
     </row>
     <row r="14" spans="1:6" ht="109.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
@@ -1809,9 +1768,6 @@
       <c r="E14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="1">
-        <v>73</v>
-      </c>
     </row>
     <row r="15" spans="1:6" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
@@ -1827,9 +1783,6 @@
       <c r="E15" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="1">
-        <v>73</v>
-      </c>
     </row>
     <row r="16" spans="1:6" ht="204" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
@@ -1845,11 +1798,8 @@
       <c r="E16" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="1">
-        <v>73</v>
-      </c>
     </row>
-    <row r="17" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
         <v>28</v>
       </c>
@@ -1862,9 +1812,6 @@
       <c r="D17" s="14"/>
       <c r="E17" s="18">
         <v>27</v>
-      </c>
-      <c r="F17" s="1">
-        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/_site/Data/OtherHardshipsCC.xlsx
+++ b/_site/Data/OtherHardshipsCC.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="30">
   <si>
     <t>Question</t>
   </si>
@@ -72,7 +72,7 @@
     </r>
   </si>
   <si>
-    <t>9, 13</t>
+    <t>9, 13, 36</t>
   </si>
   <si>
     <t>In the last 30 days, you did not have enough money to pay for food to feed your household.</t>
@@ -135,6 +135,9 @@
     <t>Free response</t>
   </si>
   <si>
+    <t>9, 13</t>
+  </si>
+  <si>
     <t>What would you like policymakers to know about evictions and foreclosures?</t>
   </si>
 </sst>
@@ -142,7 +145,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -1538,21 +1541,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="75" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="41.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="41.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="37.5" style="1" customWidth="1"/>
     <col min="3" max="4" width="25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.625" style="1" customWidth="1"/>
     <col min="6" max="6" width="16" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="1"/>
+    <col min="7" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="17.100000000000001" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1570,7 +1573,7 @@
       </c>
       <c r="F1" s="19"/>
     </row>
-    <row r="2" spans="1:6" ht="68" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="68.099999999999994" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -1587,7 +1590,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="68" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="68.099999999999994" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
@@ -1604,7 +1607,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="51" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>11</v>
       </c>
@@ -1619,7 +1622,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="51" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>13</v>
       </c>
@@ -1634,7 +1637,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="51" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>14</v>
       </c>
@@ -1649,7 +1652,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="51" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>15</v>
       </c>
@@ -1664,7 +1667,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="68" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="68.099999999999994" customHeight="1">
       <c r="A8" s="5" t="s">
         <v>16</v>
       </c>
@@ -1679,7 +1682,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="94.5" customHeight="1">
       <c r="A9" s="5" t="s">
         <v>18</v>
       </c>
@@ -1694,7 +1697,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="102" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="102" customHeight="1">
       <c r="A10" s="5" t="s">
         <v>19</v>
       </c>
@@ -1709,7 +1712,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="84.95" customHeight="1">
       <c r="A11" s="5" t="s">
         <v>20</v>
       </c>
@@ -1724,7 +1727,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="119" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="110.25">
       <c r="A12" s="5" t="s">
         <v>22</v>
       </c>
@@ -1739,7 +1742,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="47.25">
       <c r="A13" s="5" t="s">
         <v>23</v>
       </c>
@@ -1754,7 +1757,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="109.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="109.5" customHeight="1">
       <c r="A14" s="5" t="s">
         <v>24</v>
       </c>
@@ -1769,7 +1772,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="84.95" customHeight="1">
       <c r="A15" s="7" t="s">
         <v>25</v>
       </c>
@@ -1784,7 +1787,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="204" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="204" customHeight="1">
       <c r="A16" s="10" t="s">
         <v>26</v>
       </c>
@@ -1796,12 +1799,12 @@
       </c>
       <c r="D16" s="16"/>
       <c r="E16" s="17" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="33.75" customHeight="1">
       <c r="A17" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>27</v>

--- a/_site/Data/OtherHardshipsCC.xlsx
+++ b/_site/Data/OtherHardshipsCC.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="38">
   <si>
     <t>Question</t>
   </si>
@@ -46,6 +46,19 @@
   </si>
   <si>
     <t>Occurrence</t>
+  </si>
+  <si>
+    <t>Please describe your housing status:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• I rent the home I live in
+• I own the home I live in
+• I am currently houseless
+• Not applicaple
+</t>
+  </si>
+  <si>
+    <t>40</t>
   </si>
   <si>
     <t>In the last 30 days, your household did not pay the full amount of the rent or mortgage or was late with a payment because your household could not afford to pay.</t>
@@ -72,10 +85,13 @@
     </r>
   </si>
   <si>
+    <t>9, 13, 36, 40</t>
+  </si>
+  <si>
+    <t>In the last 30 days, you did not have enough money to pay for food to feed your household.</t>
+  </si>
+  <si>
     <t>9, 13, 36</t>
-  </si>
-  <si>
-    <t>In the last 30 days, you did not have enough money to pay for food to feed your household.</t>
   </si>
   <si>
     <t>In the last 30 days, you were evicted from the place you rented.</t>
@@ -111,16 +127,28 @@
     <t xml:space="preserve">If you rent the place you currently live, how worried are you about being evicted in the next month? </t>
   </si>
   <si>
+    <t xml:space="preserve">How worried are you about being evicted in the next month? </t>
+  </si>
+  <si>
     <t>If you rent the place you currently live, have you received an eviction notice in the last 30 days?</t>
   </si>
   <si>
     <t>RAPID Team Developed</t>
   </si>
   <si>
+    <t>Have you received an eviction notice in the last 30 days?</t>
+  </si>
+  <si>
     <t>If you own the home where you currently live, how worried are you about your mortgage being foreclosed on in the next month?</t>
   </si>
   <si>
+    <t>How worried are you about your mortgage being foreclosed on in the next month?</t>
+  </si>
+  <si>
     <t>If you own the home where you currently live, have you received a notice of foreclosure in the last 30 days?</t>
+  </si>
+  <si>
+    <t>Have you received a notice of foreclosure in the last 30 days?</t>
   </si>
   <si>
     <t xml:space="preserve">How worried are you about household not being able to pay the full amount of the gas, oil, or electricity bills in the next month?   </t>
@@ -326,7 +354,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -377,6 +405,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1539,10 +1573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="75" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95" customHeight="1"/>
@@ -1573,255 +1607,321 @@
       </c>
       <c r="F1" s="19"/>
     </row>
-    <row r="2" spans="1:6" ht="68.099999999999994" customHeight="1">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:6" ht="17.100000000000001" customHeight="1">
+      <c r="A2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:6" ht="68.099999999999994" customHeight="1">
       <c r="A3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>7</v>
-      </c>
       <c r="D3" s="6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E3" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="68.099999999999994" customHeight="1">
+      <c r="A4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="51" customHeight="1">
-      <c r="A4" s="5" t="s">
+      <c r="C4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="3"/>
       <c r="E4" s="4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="51" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="51" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="51" customHeight="1">
       <c r="A7" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="51" customHeight="1">
+      <c r="A8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="68.099999999999994" customHeight="1">
-      <c r="A8" s="5" t="s">
+      <c r="C8" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>12</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="94.5" customHeight="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="110.25">
       <c r="A9" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="102" customHeight="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="94.5" customHeight="1">
       <c r="A10" s="5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="84.95" customHeight="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="102" customHeight="1">
       <c r="A11" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="110.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="102" customHeight="1">
       <c r="A12" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>12</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C12" s="6"/>
       <c r="D12" s="3"/>
       <c r="E12" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="84.95" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="47.25">
-      <c r="A13" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>6</v>
-      </c>
       <c r="C13" s="6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="84.95" customHeight="1">
+      <c r="A14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="109.5" customHeight="1">
-      <c r="A14" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>12</v>
-      </c>
+      <c r="C14" s="6"/>
       <c r="D14" s="3"/>
       <c r="E14" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="84.95" customHeight="1">
-      <c r="A15" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>17</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="110.25">
+      <c r="A15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="110.25">
+      <c r="A16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="47.25">
+      <c r="A17" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="204" customHeight="1">
-      <c r="A16" s="10" t="s">
+      <c r="C17" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="13" t="s">
+      <c r="D17" s="3"/>
+      <c r="E17" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="47.25">
+      <c r="A18" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="109.5" customHeight="1">
+      <c r="A19" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="33.75" customHeight="1">
-      <c r="A17" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="15" t="s">
+      <c r="C19" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="84.95" customHeight="1">
+      <c r="A20" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="18">
+      <c r="C20" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="204" customHeight="1">
+      <c r="A21" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="16"/>
+      <c r="E21" s="17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="33.75" customHeight="1">
+      <c r="A22" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="14"/>
+      <c r="E22" s="18">
         <v>27</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{1E2B7A57-1F65-C641-8F28-832C9EA7F01C}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{3B19CD60-FD56-274A-B953-AB97D758603B}"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{1E2B7A57-1F65-C641-8F28-832C9EA7F01C}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{3B19CD60-FD56-274A-B953-AB97D758603B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/_site/Data/OtherHardshipsCC.xlsx
+++ b/_site/Data/OtherHardshipsCC.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24923"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="44">
   <si>
     <t>Question</t>
   </si>
@@ -45,7 +45,7 @@
     <t>Source Link</t>
   </si>
   <si>
-    <t>Occurrence</t>
+    <t>Dates Used</t>
   </si>
   <si>
     <t>Please describe your housing status:</t>
@@ -58,7 +58,7 @@
 </t>
   </si>
   <si>
-    <t>40</t>
+    <t>11/19/2021-11/23/2021 01/11/2021-01/22/2021</t>
   </si>
   <si>
     <t>In the last 30 days, your household did not pay the full amount of the rent or mortgage or was late with a payment because your household could not afford to pay.</t>
@@ -85,13 +85,13 @@
     </r>
   </si>
   <si>
-    <t>9, 13, 36, 40</t>
+    <t>04/19/2021-04/29/2021 05/14/2021-05/28/2021 10/26/2021-11/01/2021 11/19/2021-11/23/2021 01/11/2021-01/22/2021</t>
   </si>
   <si>
     <t>In the last 30 days, you did not have enough money to pay for food to feed your household.</t>
   </si>
   <si>
-    <t>9, 13, 36</t>
+    <t>04/19/2021-04/29/2021 05/14/2021-05/28/2021 10/26/2021-11/01/2021</t>
   </si>
   <si>
     <t>In the last 30 days, you were evicted from the place you rented.</t>
@@ -139,6 +139,21 @@
     <t>Have you received an eviction notice in the last 30 days?</t>
   </si>
   <si>
+    <t>11/19/2021-11/23/2021</t>
+  </si>
+  <si>
+    <t>Have you received an eviction notice in the last 30 days from the place you rented?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Yes
+• No
+• Not applicable
+</t>
+  </si>
+  <si>
+    <t>01/11/2021-01/22/2021</t>
+  </si>
+  <si>
     <t>If you own the home where you currently live, how worried are you about your mortgage being foreclosed on in the next month?</t>
   </si>
   <si>
@@ -151,6 +166,9 @@
     <t>Have you received a notice of foreclosure in the last 30 days?</t>
   </si>
   <si>
+    <t xml:space="preserve">11/19/2021-11/23/2021 01/11/2021-01/22/2021  </t>
+  </si>
+  <si>
     <t xml:space="preserve">How worried are you about household not being able to pay the full amount of the gas, oil, or electricity bills in the next month?   </t>
   </si>
   <si>
@@ -163,10 +181,13 @@
     <t>Free response</t>
   </si>
   <si>
-    <t>9, 13</t>
+    <t xml:space="preserve">04/19/2021-04/29/2021 05/14/2021-05/28/2021 </t>
   </si>
   <si>
     <t>What would you like policymakers to know about evictions and foreclosures?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08/02/2021-08/26/2021 01/11/2021-01/22/2021 </t>
   </si>
 </sst>
 </file>
@@ -354,7 +375,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -403,7 +424,6 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -412,6 +432,12 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1573,10 +1599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="75" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B22" zoomScale="75" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95" customHeight="1"/>
@@ -1605,10 +1631,10 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="19"/>
-    </row>
-    <row r="2" spans="1:6" ht="17.100000000000001" customHeight="1">
-      <c r="A2" s="20" t="s">
+      <c r="F1" s="18"/>
+    </row>
+    <row r="2" spans="1:6" ht="78.75">
+      <c r="A2" s="19" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1619,9 +1645,9 @@
       <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="21"/>
-    </row>
-    <row r="3" spans="1:6" ht="68.099999999999994" customHeight="1">
+      <c r="F2" s="20"/>
+    </row>
+    <row r="3" spans="1:6" ht="94.5">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -1655,7 +1681,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="51" customHeight="1">
+    <row r="5" spans="1:6" ht="94.5">
       <c r="A5" s="5" t="s">
         <v>15</v>
       </c>
@@ -1666,11 +1692,11 @@
         <v>16</v>
       </c>
       <c r="D5" s="3"/>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="51" customHeight="1">
+    <row r="6" spans="1:6" ht="94.5">
       <c r="A6" s="5" t="s">
         <v>17</v>
       </c>
@@ -1681,11 +1707,11 @@
         <v>16</v>
       </c>
       <c r="D6" s="3"/>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="51" customHeight="1">
+    <row r="7" spans="1:6" ht="94.5">
       <c r="A7" s="5" t="s">
         <v>18</v>
       </c>
@@ -1696,11 +1722,11 @@
         <v>16</v>
       </c>
       <c r="D7" s="3"/>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="51" customHeight="1">
+    <row r="8" spans="1:6" ht="94.5">
       <c r="A8" s="5" t="s">
         <v>19</v>
       </c>
@@ -1711,7 +1737,7 @@
         <v>16</v>
       </c>
       <c r="D8" s="3"/>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="21" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1726,7 +1752,7 @@
         <v>16</v>
       </c>
       <c r="D9" s="3"/>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="21" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1798,123 +1824,136 @@
       <c r="C14" s="6"/>
       <c r="D14" s="3"/>
       <c r="E14" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="110.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="84.95" customHeight="1">
       <c r="A15" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>16</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="C15" s="6"/>
       <c r="D15" s="3"/>
       <c r="E15" s="4" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="110.25">
       <c r="A16" s="5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="6"/>
+      <c r="C16" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="D16" s="3"/>
       <c r="E16" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="47.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="110.25">
       <c r="A17" s="5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="47.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="63">
       <c r="A18" s="5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="6"/>
+      <c r="C18" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="D18" s="3"/>
       <c r="E18" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="109.5" customHeight="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="63">
       <c r="A19" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>16</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C19" s="6"/>
       <c r="D19" s="3"/>
       <c r="E19" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="84.95" customHeight="1">
-      <c r="A20" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="110.25">
+      <c r="A20" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>16</v>
       </c>
       <c r="D20" s="3"/>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="204" customHeight="1">
-      <c r="A21" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="13" t="s">
+    <row r="21" spans="1:5" ht="110.25">
+      <c r="A21" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="204" customHeight="1">
+      <c r="A22" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="16"/>
-      <c r="E21" s="17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="33.75" customHeight="1">
-      <c r="A22" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="15" t="s">
+      <c r="D22" s="16"/>
+      <c r="E22" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="31.5">
+      <c r="A23" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="14"/>
-      <c r="E22" s="18">
-        <v>27</v>
+      <c r="D23" s="14"/>
+      <c r="E23" s="22" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/_site/Data/OtherHardshipsCC.xlsx
+++ b/_site/Data/OtherHardshipsCC.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24923"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25113"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="46">
   <si>
     <t>Question</t>
   </si>
@@ -58,7 +58,7 @@
 </t>
   </si>
   <si>
-    <t>11/19/2021-11/23/2021 01/11/2021-01/22/2021</t>
+    <t>11/19/2021-11/23/2021 01/11/2021-01/22/2021 01/31/2022-02/07/2022 46, 48</t>
   </si>
   <si>
     <t>In the last 30 days, your household did not pay the full amount of the rent or mortgage or was late with a payment because your household could not afford to pay.</t>
@@ -85,7 +85,7 @@
     </r>
   </si>
   <si>
-    <t>04/19/2021-04/29/2021 05/14/2021-05/28/2021 10/26/2021-11/01/2021 11/19/2021-11/23/2021 01/11/2021-01/22/2021</t>
+    <t>04/19/2021-04/29/2021 05/14/2021-05/28/2021 10/26/2021-11/01/2021 11/19/2021-11/23/2021 01/11/2021-01/22/2021 01/31/2022-02/07/2022 46, 48</t>
   </si>
   <si>
     <t>In the last 30 days, you did not have enough money to pay for food to feed your household.</t>
@@ -100,13 +100,22 @@
     <t>Provided by Urban Institute</t>
   </si>
   <si>
+    <t>04/19/2021-04/29/2021 05/14/2021-05/28/2021 10/26/2021-11/01/2021 11/19/2021-11/23/2021 01/11/2021-01/22/2021 01/31/2022-02/07/2022  46, 48</t>
+  </si>
+  <si>
     <t xml:space="preserve">In the last 30 days, your mortgage (for the home you lived in and owned) was foreclosed on. </t>
   </si>
   <si>
     <t>In the last 30 days, your household was not able to pay the full amount of the gas, oil, or electricity bills.</t>
   </si>
   <si>
+    <t xml:space="preserve">04/19/2021-04/29/2021 05/14/2021-05/28/2021 10/26/2021-11/01/2021 11/19/2021-11/23/2021 01/11/2021-01/22/2021 01/31/2022-02/07/2022 46, 48 </t>
+  </si>
+  <si>
     <t xml:space="preserve">In the last 30 days, the gas or electric company turned off service, or the oil company would not deliver oil. </t>
+  </si>
+  <si>
+    <t>04/19/2021-04/29/2021 05/14/2021-05/28/2021 10/26/2021-11/01/2021 11/19/2021-11/23/2021 01/11/2021-01/22/2021 46, 48</t>
   </si>
   <si>
     <t xml:space="preserve">How worried are you about your household not being able to pay the full amount of the rent or mortgage or being late with a payment because your household cannot afford to pay in the next month? </t>
@@ -139,7 +148,7 @@
     <t>Have you received an eviction notice in the last 30 days?</t>
   </si>
   <si>
-    <t>11/19/2021-11/23/2021</t>
+    <t>11/19/2021-11/23/2021 01/31/2022-02/07/2022</t>
   </si>
   <si>
     <t>Have you received an eviction notice in the last 30 days from the place you rented?</t>
@@ -151,7 +160,7 @@
 </t>
   </si>
   <si>
-    <t>01/11/2021-01/22/2021</t>
+    <t>01/11/2021-01/22/2021 46, 48</t>
   </si>
   <si>
     <t>If you own the home where you currently live, how worried are you about your mortgage being foreclosed on in the next month?</t>
@@ -166,9 +175,6 @@
     <t>Have you received a notice of foreclosure in the last 30 days?</t>
   </si>
   <si>
-    <t xml:space="preserve">11/19/2021-11/23/2021 01/11/2021-01/22/2021  </t>
-  </si>
-  <si>
     <t xml:space="preserve">How worried are you about household not being able to pay the full amount of the gas, oil, or electricity bills in the next month?   </t>
   </si>
   <si>
@@ -187,7 +193,7 @@
     <t>What would you like policymakers to know about evictions and foreclosures?</t>
   </si>
   <si>
-    <t xml:space="preserve">08/02/2021-08/26/2021 01/11/2021-01/22/2021 </t>
+    <t>08/02/2021-08/26/2021 01/11/2021-01/22/2021 01/31/2022-02/07/2022 46, 48</t>
   </si>
 </sst>
 </file>
@@ -375,7 +381,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -433,11 +439,8 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1601,8 +1604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B22" zoomScale="75" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B20" zoomScale="75" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95" customHeight="1"/>
@@ -1610,7 +1613,7 @@
     <col min="1" max="1" width="41.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="37.5" style="1" customWidth="1"/>
     <col min="3" max="4" width="25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.25" style="1" customWidth="1"/>
     <col min="6" max="6" width="16" style="1" customWidth="1"/>
     <col min="7" max="16384" width="10.875" style="1"/>
   </cols>
@@ -1647,7 +1650,7 @@
       </c>
       <c r="F2" s="20"/>
     </row>
-    <row r="3" spans="1:6" ht="94.5">
+    <row r="3" spans="1:6" ht="110.25">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -1664,7 +1667,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="68.099999999999994" customHeight="1">
+    <row r="4" spans="1:6" ht="63">
       <c r="A4" s="5" t="s">
         <v>13</v>
       </c>
@@ -1681,7 +1684,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="94.5">
+    <row r="5" spans="1:6" ht="110.25">
       <c r="A5" s="5" t="s">
         <v>15</v>
       </c>
@@ -1692,13 +1695,13 @@
         <v>16</v>
       </c>
       <c r="D5" s="3"/>
-      <c r="E5" s="21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="94.5">
+      <c r="E5" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="110.25">
       <c r="A6" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>9</v>
@@ -1707,13 +1710,13 @@
         <v>16</v>
       </c>
       <c r="D6" s="3"/>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="94.5">
+    <row r="7" spans="1:6" ht="110.25">
       <c r="A7" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>9</v>
@@ -1722,13 +1725,13 @@
         <v>16</v>
       </c>
       <c r="D7" s="3"/>
-      <c r="E7" s="21" t="s">
-        <v>12</v>
+      <c r="E7" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="94.5">
       <c r="A8" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>9</v>
@@ -1737,31 +1740,31 @@
         <v>16</v>
       </c>
       <c r="D8" s="3"/>
-      <c r="E8" s="21" t="s">
-        <v>12</v>
+      <c r="E8" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="110.25">
       <c r="A9" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="3"/>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="94.5" customHeight="1">
+    <row r="10" spans="1:6" ht="110.25">
       <c r="A10" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>16</v>
@@ -1771,12 +1774,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="102" customHeight="1">
+    <row r="11" spans="1:6" ht="110.25">
       <c r="A11" s="5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>16</v>
@@ -1786,12 +1789,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="102" customHeight="1">
+    <row r="12" spans="1:6" ht="110.25">
       <c r="A12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>21</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="3"/>
@@ -1799,24 +1802,24 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="84.95" customHeight="1">
+    <row r="13" spans="1:6" ht="47.25">
       <c r="A13" s="5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="84.95" customHeight="1">
+    <row r="14" spans="1:6" ht="47.25">
       <c r="A14" s="5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>9</v>
@@ -1824,28 +1827,28 @@
       <c r="C14" s="6"/>
       <c r="D14" s="3"/>
       <c r="E14" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="84.95" customHeight="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="63">
       <c r="A15" s="5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="3"/>
       <c r="E15" s="4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="110.25">
       <c r="A16" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>16</v>
@@ -1857,10 +1860,10 @@
     </row>
     <row r="17" spans="1:5" ht="110.25">
       <c r="A17" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
@@ -1868,15 +1871,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="63">
+    <row r="18" spans="1:5" ht="47.25">
       <c r="A18" s="5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="4" t="s">
@@ -1885,7 +1888,7 @@
     </row>
     <row r="19" spans="1:5" ht="63">
       <c r="A19" s="5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>9</v>
@@ -1893,67 +1896,67 @@
       <c r="C19" s="6"/>
       <c r="D19" s="3"/>
       <c r="E19" s="4" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="110.25">
       <c r="A20" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>16</v>
       </c>
       <c r="D20" s="3"/>
-      <c r="E20" s="21" t="s">
+      <c r="E20" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="110.25">
       <c r="A21" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3"/>
-      <c r="E21" s="21" t="s">
+      <c r="E21" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="204" customHeight="1">
+    <row r="22" spans="1:5" ht="47.25">
       <c r="A22" s="10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D22" s="16"/>
       <c r="E22" s="17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="31.5">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="63">
       <c r="A23" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="C23" s="15" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D23" s="14"/>
-      <c r="E23" s="22" t="s">
-        <v>43</v>
+      <c r="E23" s="21" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/_site/Data/OtherHardshipsCC.xlsx
+++ b/_site/Data/OtherHardshipsCC.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mhpsDXmEjxCPlfMYBN2Ph8Tp1d0bg=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mjCapBY3ssFWe7h+WvZaAtX8YFZbw=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="60">
   <si>
     <t>Question</t>
   </si>
@@ -60,7 +60,7 @@
 • Not Listed (please specify) </t>
   </si>
   <si>
-    <t>01/11/2023-01/18/2023</t>
+    <t>01/11/2023-01/18/2023 02/16/2023-02/23/2023</t>
   </si>
   <si>
     <t>Is home ownership a goal for you?</t>
@@ -71,7 +71,7 @@
 • Not applicable </t>
   </si>
   <si>
-    <t>07/08/2022-07/15/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/09/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023</t>
+    <t>07/08/2022-07/15/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/09/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023</t>
   </si>
   <si>
     <t>What are the current barriers you are facing that are preventing you from owning your own home? Please select all that apply.</t>
@@ -85,6 +85,19 @@
 • Job insecurity 
 • Wanting to be able to move to another state/country/city  
 • Other, please specify </t>
+  </si>
+  <si>
+    <t>07/08/2022-07/15/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/09/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023</t>
+  </si>
+  <si>
+    <t>• Unable to afford a down payment 
+• Poor credit scores 
+• Debt 
+• No affordable housing available 
+• Unable to get a loan 
+• Job insecurity 
+• Wanting to be able to move to another state/country/city  
+• Not listed (please specify)</t>
   </si>
   <si>
     <t>In the last 30 days, your household did not pay the full amount of the rent or mortgage or was late with a payment because your household could not afford to pay.</t>
@@ -110,7 +123,7 @@
     </r>
   </si>
   <si>
-    <t>04/19/2021-04/29/2021 05/14/2021-05/28/2021 10/26/2021-11/01/2021 11/19/2021-11/23/2021 01/11/2021-01/22/2021 01/31/2022-02/07/2022 01/03/2022-01/24/2022 01/31/2022-02/11/2022 05/09/2022-05/24/2022 07/08/2022-07/15/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/09/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023</t>
+    <t>04/19/2021-04/29/2021 05/14/2021-05/28/2021 10/26/2021-11/01/2021 11/19/2021-11/23/2021 01/11/2021-01/22/2021 01/31/2022-02/07/2022 01/03/2022-01/24/2022 01/31/2022-02/11/2022 05/09/2022-05/24/2022 07/08/2022-07/15/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/09/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023</t>
   </si>
   <si>
     <t>In the last 30 days, you did not have enough money to pay for food to feed your household.</t>
@@ -136,13 +149,13 @@
     <t>Provided by Urban Institute</t>
   </si>
   <si>
-    <t>04/19/2021-04/29/2021 05/14/2021-05/28/2021 10/26/2021-11/01/2021 11/19/2021-11/23/2021 01/11/2021-01/22/2021 01/31/2022-02/07/2022  01/03/2022-01/24/2022 01/31/2022-02/11/2022 05/09/2022-05/24/2022 07/08/2022-07/15/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/09/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023</t>
+    <t>04/19/2021-04/29/2021 05/14/2021-05/28/2021 10/26/2021-11/01/2021 11/19/2021-11/23/2021 01/11/2021-01/22/2021 01/31/2022-02/07/2022  01/03/2022-01/24/2022 01/31/2022-02/11/2022 05/09/2022-05/24/2022 07/08/2022-07/15/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/09/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023</t>
   </si>
   <si>
     <t xml:space="preserve">In the last 30 days, your mortgage (for the home you lived in and owned) was foreclosed on. </t>
   </si>
   <si>
-    <t>04/19/2021-04/29/2021 05/14/2021-05/28/2021 10/26/2021-11/01/2021 11/19/2021-11/23/2021 01/11/2021-01/22/2021 01/31/2022-02/07/2022 01/03/2022-01/24/2022 01/31/2022-02/11/2022 05/09/2022-05/24/2022 07/08/2022-07/15/2022  09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/09/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023</t>
+    <t>04/19/2021-04/29/2021 05/14/2021-05/28/2021 10/26/2021-11/01/2021 11/19/2021-11/23/2021 01/11/2021-01/22/2021 01/31/2022-02/07/2022 01/03/2022-01/24/2022 01/31/2022-02/11/2022 05/09/2022-05/24/2022 07/08/2022-07/15/2022  09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/09/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023</t>
   </si>
   <si>
     <t>In the last 30 days, your household was not able to pay the full amount of the gas, oil, or electricity bills.</t>
@@ -177,7 +190,7 @@
     <t xml:space="preserve">How worried are you about being evicted in the next month? </t>
   </si>
   <si>
-    <t>11/19/2021-11/23/2021 01/11/2021-01/22/2021 01/31/2022-02/07/2022 01/03/2022-01/24/2022 01/31/2022-02/11/2022 05/09/2022-05/24/2022 07/08/2022-07/15/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/09/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023</t>
+    <t>11/19/2021-11/23/2021 01/11/2021-01/22/2021 01/31/2022-02/07/2022 01/03/2022-01/24/2022 01/31/2022-02/11/2022 05/09/2022-05/24/2022 07/08/2022-07/15/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/09/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023</t>
   </si>
   <si>
     <t>If you rent the place you currently live, have you received an eviction notice in the last 30 days?</t>
@@ -201,7 +214,7 @@
 </t>
   </si>
   <si>
-    <t>01/11/2021-01/22/2021 01/03/2022-01/24/2022 01/31/2022-02/11/2022 05/09/2022-05/24/2022 07/08/2022-07/15/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/09/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023</t>
+    <t>01/11/2021-01/22/2021 01/03/2022-01/24/2022 01/31/2022-02/11/2022 05/09/2022-05/24/2022 07/08/2022-07/15/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/09/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023</t>
   </si>
   <si>
     <t>If you own the home where you currently live, how worried are you about your mortgage being foreclosed on in the next month?</t>
@@ -234,7 +247,7 @@
     <t>What would you like policymakers to know about evictions and foreclosures?</t>
   </si>
   <si>
-    <t>08/02/2021-08/26/2021 01/11/2021-01/22/2021 01/31/2022-02/07/2022 01/03/2022-01/24/2022 01/31/2022-02/11/2022 05/09/2022-05/24/2022 07/08/2022-07/15/2022 09/08/2022-09/15/2022 11/09/2022-11/16/2022 01/11/2023-01/18/2023</t>
+    <t>08/02/2021-08/26/2021 01/11/2021-01/22/2021 01/31/2022-02/07/2022 01/03/2022-01/24/2022 01/31/2022-02/11/2022 05/09/2022-05/24/2022 07/08/2022-07/15/2022 09/08/2022-09/15/2022 11/09/2022-11/16/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023</t>
   </si>
 </sst>
 </file>
@@ -889,7 +902,7 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -914,21 +927,15 @@
       <c r="Z6" s="3"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="4" t="s">
-        <v>17</v>
+      <c r="A7" s="7" t="s">
+        <v>15</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>21</v>
-      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="5"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -953,19 +960,19 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="8" t="s">
+      <c r="E8" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -991,17 +998,19 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="5" t="s">
-        <v>27</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -1027,13 +1036,13 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="5" t="s">
@@ -1066,10 +1075,10 @@
         <v>30</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="5" t="s">
@@ -1102,10 +1111,10 @@
         <v>32</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="5" t="s">
@@ -1137,15 +1146,15 @@
       <c r="A13" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>35</v>
+      <c r="B13" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="5" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -1174,14 +1183,14 @@
         <v>36</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D14" s="9"/>
-      <c r="E14" s="1" t="s">
-        <v>24</v>
+      <c r="E14" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -1207,17 +1216,17 @@
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>35</v>
-      </c>
       <c r="C15" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -1243,15 +1252,17 @@
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
-      <c r="C16" s="1"/>
+      <c r="C16" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="D16" s="9"/>
-      <c r="E16" s="5" t="s">
-        <v>39</v>
+      <c r="E16" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -1279,15 +1290,13 @@
       <c r="A17" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>18</v>
+      <c r="B17" s="5" t="s">
+        <v>37</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="1"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -1316,12 +1325,14 @@
         <v>42</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
-      <c r="C18" s="1"/>
+      <c r="C18" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="D18" s="9"/>
       <c r="E18" s="1" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -1350,12 +1361,12 @@
         <v>44</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="9"/>
-      <c r="E19" s="5" t="s">
-        <v>46</v>
+      <c r="E19" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -1381,17 +1392,15 @@
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="C20" s="1"/>
       <c r="D20" s="9"/>
-      <c r="E20" s="1" t="s">
-        <v>24</v>
+      <c r="E20" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -1417,15 +1426,17 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
-      <c r="C21" s="1"/>
+      <c r="C21" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="D21" s="9"/>
-      <c r="E21" s="5" t="s">
-        <v>39</v>
+      <c r="E21" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -1451,17 +1462,15 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>18</v>
+      <c r="B22" s="5" t="s">
+        <v>37</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="1"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -1487,15 +1496,17 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
-      <c r="C23" s="1"/>
+      <c r="C23" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="D23" s="9"/>
-      <c r="E23" s="5" t="s">
-        <v>39</v>
+      <c r="E23" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -1521,17 +1532,15 @@
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>35</v>
+      <c r="B24" s="1" t="s">
+        <v>20</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="C24" s="1"/>
       <c r="D24" s="9"/>
       <c r="E24" s="5" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -1556,18 +1565,18 @@
       <c r="Z24" s="3"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="10" t="s">
-        <v>52</v>
+      <c r="A25" s="4" t="s">
+        <v>53</v>
       </c>
-      <c r="B25" s="11" t="s">
-        <v>35</v>
+      <c r="B25" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D25" s="9"/>
       <c r="E25" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
@@ -1592,18 +1601,18 @@
       <c r="Z25" s="3"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B26" s="13" t="s">
+      <c r="A26" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="14" t="s">
-        <v>41</v>
+      <c r="B26" s="11" t="s">
+        <v>37</v>
       </c>
-      <c r="D26" s="15"/>
-      <c r="E26" s="16" t="s">
-        <v>55</v>
+      <c r="C26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="9"/>
+      <c r="E26" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
@@ -1628,17 +1637,17 @@
       <c r="Z26" s="3"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="B27" s="17" t="s">
-        <v>54</v>
+      <c r="C27" s="14" t="s">
+        <v>43</v>
       </c>
-      <c r="C27" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="D27" s="19"/>
-      <c r="E27" s="20" t="s">
+      <c r="D27" s="15"/>
+      <c r="E27" s="16" t="s">
         <v>57</v>
       </c>
       <c r="F27" s="3"/>
@@ -1664,11 +1673,19 @@
       <c r="Z27" s="3"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="21"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
+      <c r="A28" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" s="19"/>
+      <c r="E28" s="20" t="s">
+        <v>59</v>
+      </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
@@ -29019,10 +29036,38 @@
       <c r="Y1004" s="3"/>
       <c r="Z1004" s="3"/>
     </row>
+    <row r="1005" ht="15.75" customHeight="1">
+      <c r="A1005" s="21"/>
+      <c r="B1005" s="21"/>
+      <c r="C1005" s="21"/>
+      <c r="D1005" s="21"/>
+      <c r="E1005" s="21"/>
+      <c r="F1005" s="3"/>
+      <c r="G1005" s="3"/>
+      <c r="H1005" s="3"/>
+      <c r="I1005" s="3"/>
+      <c r="J1005" s="3"/>
+      <c r="K1005" s="3"/>
+      <c r="L1005" s="3"/>
+      <c r="M1005" s="3"/>
+      <c r="N1005" s="3"/>
+      <c r="O1005" s="3"/>
+      <c r="P1005" s="3"/>
+      <c r="Q1005" s="3"/>
+      <c r="R1005" s="3"/>
+      <c r="S1005" s="3"/>
+      <c r="T1005" s="3"/>
+      <c r="U1005" s="3"/>
+      <c r="V1005" s="3"/>
+      <c r="W1005" s="3"/>
+      <c r="X1005" s="3"/>
+      <c r="Y1005" s="3"/>
+      <c r="Z1005" s="3"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="D7"/>
-    <hyperlink r:id="rId2" ref="D8"/>
+    <hyperlink r:id="rId1" ref="D8"/>
+    <hyperlink r:id="rId2" ref="D9"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>

--- a/_site/Data/OtherHardshipsCC.xlsx
+++ b/_site/Data/OtherHardshipsCC.xlsx
@@ -8,15 +8,15 @@
   <definedNames/>
   <calcPr/>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mjCapBY3ssFWe7h+WvZaAtX8YFZbw=="/>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="5T3CRR2vW7mmLj8FluysGJzs3I2i0vrV4WGdG5wLKG8="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="62">
   <si>
     <t>Question</t>
   </si>
@@ -60,7 +60,7 @@
 • Not Listed (please specify) </t>
   </si>
   <si>
-    <t>01/11/2023-01/18/2023 02/16/2023-02/23/2023 03/09/2023-03/16/2023</t>
+    <t>01/11/2023-01/18/2023 02/16/2023-02/23/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023</t>
   </si>
   <si>
     <t>Is home ownership a goal for you?</t>
@@ -71,7 +71,7 @@
 • Not applicable </t>
   </si>
   <si>
-    <t>07/08/2022-07/15/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/09/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023 03/09/2023-03/16/2023</t>
+    <t>07/08/2022-07/15/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/09/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023</t>
   </si>
   <si>
     <t>What are the current barriers you are facing that are preventing you from owning your own home? Please select all that apply.</t>
@@ -100,7 +100,7 @@
 • Not listed (please specify)</t>
   </si>
   <si>
-    <t>03/09/2023-03/16/2023</t>
+    <t>03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023</t>
   </si>
   <si>
     <t>In the last 30 days, your household did not pay the full amount of the rent or mortgage or was late with a payment because your household could not afford to pay.</t>
@@ -126,7 +126,7 @@
     </r>
   </si>
   <si>
-    <t>04/19/2021-04/29/2021 05/14/2021-05/28/2021 10/26/2021-11/01/2021 11/19/2021-11/23/2021 01/11/2021-01/22/2021 01/31/2022-02/07/2022 01/03/2022-01/24/2022 01/31/2022-02/11/2022 05/09/2022-05/24/2022 07/08/2022-07/15/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/09/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023 03/09/2023-03/16/2023</t>
+    <t>04/19/2021-04/29/2021 05/14/2021-05/28/2021 10/26/2021-11/01/2021 11/19/2021-11/23/2021 01/11/2021-01/22/2021 01/31/2022-02/07/2022 01/03/2022-01/24/2022 01/31/2022-02/11/2022 05/09/2022-05/24/2022 07/08/2022-07/15/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/09/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023</t>
   </si>
   <si>
     <t>In the last 30 days, you did not have enough money to pay for food to feed your household.</t>
@@ -152,13 +152,13 @@
     <t>Provided by Urban Institute</t>
   </si>
   <si>
-    <t>04/19/2021-04/29/2021 05/14/2021-05/28/2021 10/26/2021-11/01/2021 11/19/2021-11/23/2021 01/11/2021-01/22/2021 01/31/2022-02/07/2022  01/03/2022-01/24/2022 01/31/2022-02/11/2022 05/09/2022-05/24/2022 07/08/2022-07/15/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/09/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023 03/09/2023-03/16/2023</t>
+    <t>04/19/2021-04/29/2021 05/14/2021-05/28/2021 10/26/2021-11/01/2021 11/19/2021-11/23/2021 01/11/2021-01/22/2021 01/31/2022-02/07/2022  01/03/2022-01/24/2022 01/31/2022-02/11/2022 05/09/2022-05/24/2022 07/08/2022-07/15/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/09/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023</t>
   </si>
   <si>
     <t xml:space="preserve">In the last 30 days, your mortgage (for the home you lived in and owned) was foreclosed on. </t>
   </si>
   <si>
-    <t>04/19/2021-04/29/2021 05/14/2021-05/28/2021 10/26/2021-11/01/2021 11/19/2021-11/23/2021 01/11/2021-01/22/2021 01/31/2022-02/07/2022 01/03/2022-01/24/2022 01/31/2022-02/11/2022 05/09/2022-05/24/2022 07/08/2022-07/15/2022  09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/09/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023 03/09/2023-03/16/2023</t>
+    <t>04/19/2021-04/29/2021 05/14/2021-05/28/2021 10/26/2021-11/01/2021 11/19/2021-11/23/2021 01/11/2021-01/22/2021 01/31/2022-02/07/2022 01/03/2022-01/24/2022 01/31/2022-02/11/2022 05/09/2022-05/24/2022 07/08/2022-07/15/2022  09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/09/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023</t>
   </si>
   <si>
     <t>In the last 30 days, your household was not able to pay the full amount of the gas, oil, or electricity bills.</t>
@@ -193,7 +193,7 @@
     <t xml:space="preserve">How worried are you about being evicted in the next month? </t>
   </si>
   <si>
-    <t>11/19/2021-11/23/2021 01/11/2021-01/22/2021 01/31/2022-02/07/2022 01/03/2022-01/24/2022 01/31/2022-02/11/2022 05/09/2022-05/24/2022 07/08/2022-07/15/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/09/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023 03/09/2023-03/16/2023</t>
+    <t>11/19/2021-11/23/2021 01/11/2021-01/22/2021 01/31/2022-02/07/2022 01/03/2022-01/24/2022 01/31/2022-02/11/2022 05/09/2022-05/24/2022 07/08/2022-07/15/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/09/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023</t>
   </si>
   <si>
     <t>If you rent the place you currently live, have you received an eviction notice in the last 30 days?</t>
@@ -217,7 +217,7 @@
 </t>
   </si>
   <si>
-    <t>01/11/2021-01/22/2021 01/03/2022-01/24/2022 01/31/2022-02/11/2022 05/09/2022-05/24/2022 07/08/2022-07/15/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/09/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023 03/09/2023-03/16/2023</t>
+    <t>01/11/2021-01/22/2021 01/03/2022-01/24/2022 01/31/2022-02/11/2022 05/09/2022-05/24/2022 07/08/2022-07/15/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/09/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023</t>
   </si>
   <si>
     <t>If you own the home where you currently live, how worried are you about your mortgage being foreclosed on in the next month?</t>
@@ -230,6 +230,9 @@
   </si>
   <si>
     <t>Have you received a notice of foreclosure in the last 30 days?</t>
+  </si>
+  <si>
+    <t>11/19/2021-11/23/2021 01/11/2021-01/22/2021 01/31/2022-02/07/2022 01/03/2022-01/24/2022 01/31/2022-02/11/2022 05/09/2022-05/24/2022 07/08/2022-07/15/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/09/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023</t>
   </si>
   <si>
     <t xml:space="preserve">How worried are you about household not being able to pay the full amount of the gas, oil, or electricity bills in the next month?   </t>
@@ -250,7 +253,7 @@
     <t>What would you like policymakers to know about evictions and foreclosures?</t>
   </si>
   <si>
-    <t>08/02/2021-08/26/2021 01/11/2021-01/22/2021 01/31/2022-02/07/2022 01/03/2022-01/24/2022 01/31/2022-02/11/2022 05/09/2022-05/24/2022 07/08/2022-07/15/2022 09/08/2022-09/15/2022 11/09/2022-11/16/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023 03/09/2023-03/16/2023</t>
+    <t>08/02/2021-08/26/2021 01/11/2021-01/22/2021 01/31/2022-02/07/2022 01/03/2022-01/24/2022 01/31/2022-02/11/2022 05/09/2022-05/24/2022 07/08/2022-07/15/2022 09/08/2022-09/15/2022 11/09/2022-11/16/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023</t>
   </si>
 </sst>
 </file>
@@ -1548,7 +1551,7 @@
       <c r="C24" s="1"/>
       <c r="D24" s="9"/>
       <c r="E24" s="5" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -1574,7 +1577,7 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>38</v>
@@ -1610,7 +1613,7 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>38</v>
@@ -1646,17 +1649,17 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C27" s="14" t="s">
         <v>44</v>
       </c>
       <c r="D27" s="15"/>
       <c r="E27" s="16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
@@ -1682,17 +1685,17 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C28" s="19" t="s">
         <v>44</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>

--- a/_site/Data/OtherHardshipsCC.xlsx
+++ b/_site/Data/OtherHardshipsCC.xlsx
@@ -60,7 +60,7 @@
 • Not Listed (please specify) </t>
   </si>
   <si>
-    <t>01/11/2023-01/18/2023 02/16/2023-02/23/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023</t>
+    <t>01/11/2023-01/18/2023 02/16/2023-02/23/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023</t>
   </si>
   <si>
     <t>Is home ownership a goal for you?</t>
@@ -71,7 +71,7 @@
 • Not applicable </t>
   </si>
   <si>
-    <t>07/08/2022-07/15/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/09/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023</t>
+    <t>07/08/2022-07/15/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/09/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023</t>
   </si>
   <si>
     <t>What are the current barriers you are facing that are preventing you from owning your own home? Please select all that apply.</t>
@@ -100,7 +100,7 @@
 • Not listed (please specify)</t>
   </si>
   <si>
-    <t>03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023</t>
+    <t>03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023</t>
   </si>
   <si>
     <t>In the last 30 days, your household did not pay the full amount of the rent or mortgage or was late with a payment because your household could not afford to pay.</t>
@@ -126,7 +126,7 @@
     </r>
   </si>
   <si>
-    <t>04/19/2021-04/29/2021 05/14/2021-05/28/2021 10/26/2021-11/01/2021 11/19/2021-11/23/2021 01/11/2021-01/22/2021 01/31/2022-02/07/2022 01/03/2022-01/24/2022 01/31/2022-02/11/2022 05/09/2022-05/24/2022 07/08/2022-07/15/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/09/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023</t>
+    <t>04/19/2021-04/29/2021 05/14/2021-05/28/2021 10/26/2021-11/01/2021 11/19/2021-11/23/2021 01/11/2021-01/22/2021 01/31/2022-02/07/2022 01/03/2022-01/24/2022 01/31/2022-02/11/2022 05/09/2022-05/24/2022 07/08/2022-07/15/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/09/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023</t>
   </si>
   <si>
     <t>In the last 30 days, you did not have enough money to pay for food to feed your household.</t>
@@ -152,13 +152,13 @@
     <t>Provided by Urban Institute</t>
   </si>
   <si>
-    <t>04/19/2021-04/29/2021 05/14/2021-05/28/2021 10/26/2021-11/01/2021 11/19/2021-11/23/2021 01/11/2021-01/22/2021 01/31/2022-02/07/2022  01/03/2022-01/24/2022 01/31/2022-02/11/2022 05/09/2022-05/24/2022 07/08/2022-07/15/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/09/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023</t>
+    <t>04/19/2021-04/29/2021 05/14/2021-05/28/2021 10/26/2021-11/01/2021 11/19/2021-11/23/2021 01/11/2021-01/22/2021 01/31/2022-02/07/2022  01/03/2022-01/24/2022 01/31/2022-02/11/2022 05/09/2022-05/24/2022 07/08/2022-07/15/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/09/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023</t>
   </si>
   <si>
     <t xml:space="preserve">In the last 30 days, your mortgage (for the home you lived in and owned) was foreclosed on. </t>
   </si>
   <si>
-    <t>04/19/2021-04/29/2021 05/14/2021-05/28/2021 10/26/2021-11/01/2021 11/19/2021-11/23/2021 01/11/2021-01/22/2021 01/31/2022-02/07/2022 01/03/2022-01/24/2022 01/31/2022-02/11/2022 05/09/2022-05/24/2022 07/08/2022-07/15/2022  09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/09/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023</t>
+    <t>04/19/2021-04/29/2021 05/14/2021-05/28/2021 10/26/2021-11/01/2021 11/19/2021-11/23/2021 01/11/2021-01/22/2021 01/31/2022-02/07/2022 01/03/2022-01/24/2022 01/31/2022-02/11/2022 05/09/2022-05/24/2022 07/08/2022-07/15/2022  09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/09/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023</t>
   </si>
   <si>
     <t>In the last 30 days, your household was not able to pay the full amount of the gas, oil, or electricity bills.</t>
@@ -193,7 +193,7 @@
     <t xml:space="preserve">How worried are you about being evicted in the next month? </t>
   </si>
   <si>
-    <t>11/19/2021-11/23/2021 01/11/2021-01/22/2021 01/31/2022-02/07/2022 01/03/2022-01/24/2022 01/31/2022-02/11/2022 05/09/2022-05/24/2022 07/08/2022-07/15/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/09/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023</t>
+    <t>11/19/2021-11/23/2021 01/11/2021-01/22/2021 01/31/2022-02/07/2022 01/03/2022-01/24/2022 01/31/2022-02/11/2022 05/09/2022-05/24/2022 07/08/2022-07/15/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/09/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023</t>
   </si>
   <si>
     <t>If you rent the place you currently live, have you received an eviction notice in the last 30 days?</t>
@@ -217,7 +217,7 @@
 </t>
   </si>
   <si>
-    <t>01/11/2021-01/22/2021 01/03/2022-01/24/2022 01/31/2022-02/11/2022 05/09/2022-05/24/2022 07/08/2022-07/15/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/09/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023</t>
+    <t>01/11/2021-01/22/2021 01/03/2022-01/24/2022 01/31/2022-02/11/2022 05/09/2022-05/24/2022 07/08/2022-07/15/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/09/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023</t>
   </si>
   <si>
     <t>If you own the home where you currently live, how worried are you about your mortgage being foreclosed on in the next month?</t>
@@ -232,7 +232,7 @@
     <t>Have you received a notice of foreclosure in the last 30 days?</t>
   </si>
   <si>
-    <t>11/19/2021-11/23/2021 01/11/2021-01/22/2021 01/31/2022-02/07/2022 01/03/2022-01/24/2022 01/31/2022-02/11/2022 05/09/2022-05/24/2022 07/08/2022-07/15/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/09/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023</t>
+    <t>11/19/2021-11/23/2021 01/11/2021-01/22/2021 01/31/2022-02/07/2022 01/03/2022-01/24/2022 01/31/2022-02/11/2022 05/09/2022-05/24/2022 07/08/2022-07/15/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/09/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 07/05/2023-07/12/2023</t>
   </si>
   <si>
     <t xml:space="preserve">How worried are you about household not being able to pay the full amount of the gas, oil, or electricity bills in the next month?   </t>
@@ -253,7 +253,7 @@
     <t>What would you like policymakers to know about evictions and foreclosures?</t>
   </si>
   <si>
-    <t>08/02/2021-08/26/2021 01/11/2021-01/22/2021 01/31/2022-02/07/2022 01/03/2022-01/24/2022 01/31/2022-02/11/2022 05/09/2022-05/24/2022 07/08/2022-07/15/2022 09/08/2022-09/15/2022 11/09/2022-11/16/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023</t>
+    <t>08/02/2021-08/26/2021 01/11/2021-01/22/2021 01/31/2022-02/07/2022 01/03/2022-01/24/2022 01/31/2022-02/11/2022 05/09/2022-05/24/2022 07/08/2022-07/15/2022 09/08/2022-09/15/2022 11/09/2022-11/16/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023</t>
   </si>
 </sst>
 </file>

--- a/_site/Data/OtherHardshipsCC.xlsx
+++ b/_site/Data/OtherHardshipsCC.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="5T3CRR2vW7mmLj8FluysGJzs3I2i0vrV4WGdG5wLKG8="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="FxiKjNitGMNSQKt0XI2xHk/tAe/aTzBbHwtwGfRQ6YE="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="70">
   <si>
     <t>Question</t>
   </si>
@@ -60,7 +60,7 @@
 • Not Listed (please specify) </t>
   </si>
   <si>
-    <t>01/11/2023-01/18/2023 02/16/2023-02/23/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023</t>
+    <t>01/11/2023-01/18/2023 02/16/2023-02/23/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023 08/02/2023-08/09/2023</t>
   </si>
   <si>
     <t>Is home ownership a goal for you?</t>
@@ -129,6 +129,17 @@
     <t>04/19/2021-04/29/2021 05/14/2021-05/28/2021 10/26/2021-11/01/2021 11/19/2021-11/23/2021 01/11/2021-01/22/2021 01/31/2022-02/07/2022 01/03/2022-01/24/2022 01/31/2022-02/11/2022 05/09/2022-05/24/2022 07/08/2022-07/15/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/09/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023</t>
   </si>
   <si>
+    <t xml:space="preserve">In the last 30 days, did you not pay the full amount of the rent or mortgage or were you late with a payment because you could not afford to pay? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Yes
+• No
+• Not applicable </t>
+  </si>
+  <si>
+    <t>08/02/2023-08/09/2023</t>
+  </si>
+  <si>
     <t>In the last 30 days, you did not have enough money to pay for food to feed your household.</t>
   </si>
   <si>
@@ -155,10 +166,21 @@
     <t>04/19/2021-04/29/2021 05/14/2021-05/28/2021 10/26/2021-11/01/2021 11/19/2021-11/23/2021 01/11/2021-01/22/2021 01/31/2022-02/07/2022  01/03/2022-01/24/2022 01/31/2022-02/11/2022 05/09/2022-05/24/2022 07/08/2022-07/15/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/09/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023</t>
   </si>
   <si>
+    <t>In the last 30 days, were you evicted from the place you rented?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Yes
+• No 
+• Not applicable </t>
+  </si>
+  <si>
     <t xml:space="preserve">In the last 30 days, your mortgage (for the home you lived in and owned) was foreclosed on. </t>
   </si>
   <si>
     <t>04/19/2021-04/29/2021 05/14/2021-05/28/2021 10/26/2021-11/01/2021 11/19/2021-11/23/2021 01/11/2021-01/22/2021 01/31/2022-02/07/2022 01/03/2022-01/24/2022 01/31/2022-02/11/2022 05/09/2022-05/24/2022 07/08/2022-07/15/2022  09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/09/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023</t>
+  </si>
+  <si>
+    <t>In the last 30 days, was your mortgage (for the home you lived in and owned) foreclosed on?</t>
   </si>
   <si>
     <t>In the last 30 days, your household was not able to pay the full amount of the gas, oil, or electricity bills.</t>
@@ -184,6 +206,9 @@
 • Not applicable</t>
   </si>
   <si>
+    <t>04/19/2021-04/29/2021 05/14/2021-05/28/2021 10/26/2021-11/01/2021 11/19/2021-11/23/2021 01/11/2021-01/22/2021 01/31/2022-02/07/2022 01/03/2022-01/24/2022 01/31/2022-02/11/2022 05/09/2022-05/24/2022 07/08/2022-07/15/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/09/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023 08/02/2023-08/09/2023</t>
+  </si>
+  <si>
     <t xml:space="preserve">How worried are you about having enough money to pay for food to feed your household in the next month? </t>
   </si>
   <si>
@@ -193,7 +218,7 @@
     <t xml:space="preserve">How worried are you about being evicted in the next month? </t>
   </si>
   <si>
-    <t>11/19/2021-11/23/2021 01/11/2021-01/22/2021 01/31/2022-02/07/2022 01/03/2022-01/24/2022 01/31/2022-02/11/2022 05/09/2022-05/24/2022 07/08/2022-07/15/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/09/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023</t>
+    <t>11/19/2021-11/23/2021 01/11/2021-01/22/2021 01/31/2022-02/07/2022 01/03/2022-01/24/2022 01/31/2022-02/11/2022 05/09/2022-05/24/2022 07/08/2022-07/15/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/09/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023 08/02/2023-08/09/2023</t>
   </si>
   <si>
     <t>If you rent the place you currently live, have you received an eviction notice in the last 30 days?</t>
@@ -217,7 +242,7 @@
 </t>
   </si>
   <si>
-    <t>01/11/2021-01/22/2021 01/03/2022-01/24/2022 01/31/2022-02/11/2022 05/09/2022-05/24/2022 07/08/2022-07/15/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/09/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023</t>
+    <t>01/11/2021-01/22/2021 01/03/2022-01/24/2022 01/31/2022-02/11/2022 05/09/2022-05/24/2022 07/08/2022-07/15/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/09/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023 08/02/2023-08/09/2023</t>
   </si>
   <si>
     <t>If you own the home where you currently live, how worried are you about your mortgage being foreclosed on in the next month?</t>
@@ -232,13 +257,16 @@
     <t>Have you received a notice of foreclosure in the last 30 days?</t>
   </si>
   <si>
-    <t>11/19/2021-11/23/2021 01/11/2021-01/22/2021 01/31/2022-02/07/2022 01/03/2022-01/24/2022 01/31/2022-02/11/2022 05/09/2022-05/24/2022 07/08/2022-07/15/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/09/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 07/05/2023-07/12/2023</t>
+    <t>11/19/2021-11/23/2021 01/11/2021-01/22/2021 01/31/2022-02/07/2022 01/03/2022-01/24/2022 01/31/2022-02/11/2022 05/09/2022-05/24/2022 07/08/2022-07/15/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/09/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 07/05/2023-07/12/2023 08/02/2023-08/09/2023</t>
   </si>
   <si>
     <t xml:space="preserve">How worried are you about household not being able to pay the full amount of the gas, oil, or electricity bills in the next month?   </t>
   </si>
   <si>
     <t xml:space="preserve">How worried are you about the gas or electric company turning off service, or the oil company not delivering oil in the next month?   </t>
+  </si>
+  <si>
+    <t>04/19/2021-04/29/2021 05/14/2021-05/28/2021 10/26/2021-11/01/2021 11/19/2021-11/23/2021 01/11/2021-01/22/2021 01/31/2022-02/07/2022 01/03/2022-01/24/2022 01/31/2022-02/11/2022 05/09/2022-05/24/2022 07/08/2022-07/15/2022  09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/09/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023 08/02/2023-08/09/2023</t>
   </si>
   <si>
     <t xml:space="preserve"> Is there anything else you would like to share about your concern about eviction or foreclosure?</t>
@@ -253,7 +281,7 @@
     <t>What would you like policymakers to know about evictions and foreclosures?</t>
   </si>
   <si>
-    <t>08/02/2021-08/26/2021 01/11/2021-01/22/2021 01/31/2022-02/07/2022 01/03/2022-01/24/2022 01/31/2022-02/11/2022 05/09/2022-05/24/2022 07/08/2022-07/15/2022 09/08/2022-09/15/2022 11/09/2022-11/16/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023</t>
+    <t>08/02/2021-08/26/2021 01/11/2021-01/22/2021 01/31/2022-02/07/2022 01/03/2022-01/24/2022 01/31/2022-02/11/2022 05/09/2022-05/24/2022 07/08/2022-07/15/2022 09/08/2022-09/15/2022 11/09/2022-11/16/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023 08/02/2023-08/09/2023</t>
   </si>
 </sst>
 </file>
@@ -1008,19 +1036,15 @@
       <c r="Z8" s="3"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="8" t="s">
+      <c r="B9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F9" s="3"/>
@@ -1053,10 +1077,12 @@
         <v>21</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F10" s="3"/>
@@ -1089,11 +1115,11 @@
         <v>21</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -1118,18 +1144,16 @@
       <c r="Z11" s="3"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="4" t="s">
-        <v>33</v>
+      <c r="A12" s="7" t="s">
+        <v>34</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>21</v>
+      <c r="B12" s="5" t="s">
+        <v>35</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="C12" s="1"/>
       <c r="D12" s="9"/>
       <c r="E12" s="5" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -1155,17 +1179,17 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -1190,18 +1214,16 @@
       <c r="Z13" s="3"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="4" t="s">
-        <v>37</v>
+      <c r="A14" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="C14" s="1"/>
       <c r="D14" s="9"/>
       <c r="E14" s="5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -1229,15 +1251,15 @@
       <c r="A15" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>38</v>
+      <c r="B15" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D15" s="9"/>
-      <c r="E15" s="1" t="s">
-        <v>27</v>
+      <c r="E15" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -1263,17 +1285,17 @@
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>38</v>
+      <c r="B16" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D16" s="9"/>
-      <c r="E16" s="1" t="s">
-        <v>27</v>
+      <c r="E16" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -1299,15 +1321,17 @@
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
-      <c r="C17" s="1"/>
+      <c r="C17" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="D17" s="9"/>
       <c r="E17" s="5" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -1333,17 +1357,17 @@
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>21</v>
+      <c r="B18" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -1369,15 +1393,17 @@
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>21</v>
+      <c r="B19" s="5" t="s">
+        <v>44</v>
       </c>
-      <c r="C19" s="1"/>
+      <c r="C19" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="D19" s="9"/>
       <c r="E19" s="1" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -1403,10 +1429,10 @@
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>48</v>
+      <c r="B20" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="9"/>
@@ -1439,15 +1465,15 @@
       <c r="A21" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>38</v>
+      <c r="B21" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -1473,15 +1499,15 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>38</v>
+      <c r="B22" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="9"/>
-      <c r="E22" s="5" t="s">
-        <v>42</v>
+      <c r="E22" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -1507,17 +1533,15 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="C23" s="1"/>
       <c r="D23" s="9"/>
-      <c r="E23" s="1" t="s">
-        <v>27</v>
+      <c r="E23" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -1543,15 +1567,17 @@
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="4" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>21</v>
+      <c r="B24" s="5" t="s">
+        <v>44</v>
       </c>
-      <c r="C24" s="1"/>
+      <c r="C24" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="D24" s="9"/>
-      <c r="E24" s="5" t="s">
-        <v>54</v>
+      <c r="E24" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -1577,17 +1603,15 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="C25" s="1"/>
       <c r="D25" s="9"/>
       <c r="E25" s="5" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
@@ -1612,18 +1636,18 @@
       <c r="Z25" s="3"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="10" t="s">
-        <v>56</v>
+      <c r="A26" s="4" t="s">
+        <v>59</v>
       </c>
-      <c r="B26" s="11" t="s">
-        <v>38</v>
+      <c r="B26" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="D26" s="9"/>
-      <c r="E26" s="5" t="s">
-        <v>32</v>
+      <c r="E26" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
@@ -1648,18 +1672,16 @@
       <c r="Z26" s="3"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="12" t="s">
-        <v>57</v>
+      <c r="A27" s="4" t="s">
+        <v>60</v>
       </c>
-      <c r="B27" s="13" t="s">
-        <v>58</v>
+      <c r="B27" s="1" t="s">
+        <v>21</v>
       </c>
-      <c r="C27" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D27" s="15"/>
-      <c r="E27" s="16" t="s">
-        <v>59</v>
+      <c r="C27" s="1"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
@@ -1684,18 +1706,18 @@
       <c r="Z27" s="3"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="17" t="s">
-        <v>60</v>
+      <c r="A28" s="4" t="s">
+        <v>62</v>
       </c>
-      <c r="B28" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" s="19" t="s">
+      <c r="B28" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="21" t="s">
-        <v>61</v>
+      <c r="C28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="9"/>
+      <c r="E28" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
@@ -1720,11 +1742,19 @@
       <c r="Z28" s="3"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="22"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
+      <c r="A29" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="9"/>
+      <c r="E29" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
@@ -1748,11 +1778,19 @@
       <c r="Z29" s="3"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="22"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
+      <c r="A30" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" s="15"/>
+      <c r="E30" s="16" t="s">
+        <v>67</v>
+      </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
@@ -1776,11 +1814,19 @@
       <c r="Z30" s="3"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="22"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
+      <c r="A31" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" s="20"/>
+      <c r="E31" s="21" t="s">
+        <v>69</v>
+      </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
@@ -29075,10 +29121,94 @@
       <c r="Y1005" s="3"/>
       <c r="Z1005" s="3"/>
     </row>
+    <row r="1006" ht="15.75" customHeight="1">
+      <c r="A1006" s="22"/>
+      <c r="B1006" s="22"/>
+      <c r="C1006" s="22"/>
+      <c r="D1006" s="22"/>
+      <c r="E1006" s="22"/>
+      <c r="F1006" s="3"/>
+      <c r="G1006" s="3"/>
+      <c r="H1006" s="3"/>
+      <c r="I1006" s="3"/>
+      <c r="J1006" s="3"/>
+      <c r="K1006" s="3"/>
+      <c r="L1006" s="3"/>
+      <c r="M1006" s="3"/>
+      <c r="N1006" s="3"/>
+      <c r="O1006" s="3"/>
+      <c r="P1006" s="3"/>
+      <c r="Q1006" s="3"/>
+      <c r="R1006" s="3"/>
+      <c r="S1006" s="3"/>
+      <c r="T1006" s="3"/>
+      <c r="U1006" s="3"/>
+      <c r="V1006" s="3"/>
+      <c r="W1006" s="3"/>
+      <c r="X1006" s="3"/>
+      <c r="Y1006" s="3"/>
+      <c r="Z1006" s="3"/>
+    </row>
+    <row r="1007" ht="15.75" customHeight="1">
+      <c r="A1007" s="22"/>
+      <c r="B1007" s="22"/>
+      <c r="C1007" s="22"/>
+      <c r="D1007" s="22"/>
+      <c r="E1007" s="22"/>
+      <c r="F1007" s="3"/>
+      <c r="G1007" s="3"/>
+      <c r="H1007" s="3"/>
+      <c r="I1007" s="3"/>
+      <c r="J1007" s="3"/>
+      <c r="K1007" s="3"/>
+      <c r="L1007" s="3"/>
+      <c r="M1007" s="3"/>
+      <c r="N1007" s="3"/>
+      <c r="O1007" s="3"/>
+      <c r="P1007" s="3"/>
+      <c r="Q1007" s="3"/>
+      <c r="R1007" s="3"/>
+      <c r="S1007" s="3"/>
+      <c r="T1007" s="3"/>
+      <c r="U1007" s="3"/>
+      <c r="V1007" s="3"/>
+      <c r="W1007" s="3"/>
+      <c r="X1007" s="3"/>
+      <c r="Y1007" s="3"/>
+      <c r="Z1007" s="3"/>
+    </row>
+    <row r="1008" ht="15.75" customHeight="1">
+      <c r="A1008" s="22"/>
+      <c r="B1008" s="22"/>
+      <c r="C1008" s="22"/>
+      <c r="D1008" s="22"/>
+      <c r="E1008" s="22"/>
+      <c r="F1008" s="3"/>
+      <c r="G1008" s="3"/>
+      <c r="H1008" s="3"/>
+      <c r="I1008" s="3"/>
+      <c r="J1008" s="3"/>
+      <c r="K1008" s="3"/>
+      <c r="L1008" s="3"/>
+      <c r="M1008" s="3"/>
+      <c r="N1008" s="3"/>
+      <c r="O1008" s="3"/>
+      <c r="P1008" s="3"/>
+      <c r="Q1008" s="3"/>
+      <c r="R1008" s="3"/>
+      <c r="S1008" s="3"/>
+      <c r="T1008" s="3"/>
+      <c r="U1008" s="3"/>
+      <c r="V1008" s="3"/>
+      <c r="W1008" s="3"/>
+      <c r="X1008" s="3"/>
+      <c r="Y1008" s="3"/>
+      <c r="Z1008" s="3"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="D8"/>
-    <hyperlink r:id="rId2" ref="D9"/>
+    <hyperlink r:id="rId2" ref="D10"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>

--- a/_site/Data/OtherHardshipsCC.xlsx
+++ b/_site/Data/OtherHardshipsCC.xlsx
@@ -60,7 +60,7 @@
 • Not Listed (please specify) </t>
   </si>
   <si>
-    <t>01/11/2023-01/18/2023 02/16/2023-02/23/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023 08/02/2023-08/09/2023</t>
+    <t>01/11/2023-01/18/2023 02/16/2023-02/23/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023 08/02/2023-08/09/2023 09/06/2023-09/13/2023</t>
   </si>
   <si>
     <t>Is home ownership a goal for you?</t>
@@ -137,7 +137,7 @@
 • Not applicable </t>
   </si>
   <si>
-    <t>08/02/2023-08/09/2023</t>
+    <t>08/02/2023-08/09/2023 09/06/2023-09/13/2023</t>
   </si>
   <si>
     <t>In the last 30 days, you did not have enough money to pay for food to feed your household.</t>
@@ -206,7 +206,7 @@
 • Not applicable</t>
   </si>
   <si>
-    <t>04/19/2021-04/29/2021 05/14/2021-05/28/2021 10/26/2021-11/01/2021 11/19/2021-11/23/2021 01/11/2021-01/22/2021 01/31/2022-02/07/2022 01/03/2022-01/24/2022 01/31/2022-02/11/2022 05/09/2022-05/24/2022 07/08/2022-07/15/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/09/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023 08/02/2023-08/09/2023</t>
+    <t>04/19/2021-04/29/2021 05/14/2021-05/28/2021 10/26/2021-11/01/2021 11/19/2021-11/23/2021 01/11/2021-01/22/2021 01/31/2022-02/07/2022 01/03/2022-01/24/2022 01/31/2022-02/11/2022 05/09/2022-05/24/2022 07/08/2022-07/15/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/09/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023 08/02/2023-08/09/2023 09/06/2023-09/13/2023</t>
   </si>
   <si>
     <t xml:space="preserve">How worried are you about having enough money to pay for food to feed your household in the next month? </t>
@@ -218,7 +218,7 @@
     <t xml:space="preserve">How worried are you about being evicted in the next month? </t>
   </si>
   <si>
-    <t>11/19/2021-11/23/2021 01/11/2021-01/22/2021 01/31/2022-02/07/2022 01/03/2022-01/24/2022 01/31/2022-02/11/2022 05/09/2022-05/24/2022 07/08/2022-07/15/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/09/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023 08/02/2023-08/09/2023</t>
+    <t>11/19/2021-11/23/2021 01/11/2021-01/22/2021 01/31/2022-02/07/2022 01/03/2022-01/24/2022 01/31/2022-02/11/2022 05/09/2022-05/24/2022 07/08/2022-07/15/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/09/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023 08/02/2023-08/09/2023 09/06/2023-09/13/2023</t>
   </si>
   <si>
     <t>If you rent the place you currently live, have you received an eviction notice in the last 30 days?</t>
@@ -242,7 +242,7 @@
 </t>
   </si>
   <si>
-    <t>01/11/2021-01/22/2021 01/03/2022-01/24/2022 01/31/2022-02/11/2022 05/09/2022-05/24/2022 07/08/2022-07/15/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/09/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023 08/02/2023-08/09/2023</t>
+    <t>01/11/2021-01/22/2021 01/03/2022-01/24/2022 01/31/2022-02/11/2022 05/09/2022-05/24/2022 07/08/2022-07/15/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/09/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023 08/02/2023-08/09/2023 09/06/2023-09/13/2023</t>
   </si>
   <si>
     <t>If you own the home where you currently live, how worried are you about your mortgage being foreclosed on in the next month?</t>
@@ -257,7 +257,7 @@
     <t>Have you received a notice of foreclosure in the last 30 days?</t>
   </si>
   <si>
-    <t>11/19/2021-11/23/2021 01/11/2021-01/22/2021 01/31/2022-02/07/2022 01/03/2022-01/24/2022 01/31/2022-02/11/2022 05/09/2022-05/24/2022 07/08/2022-07/15/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/09/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 07/05/2023-07/12/2023 08/02/2023-08/09/2023</t>
+    <t>11/19/2021-11/23/2021 01/11/2021-01/22/2021 01/31/2022-02/07/2022 01/03/2022-01/24/2022 01/31/2022-02/11/2022 05/09/2022-05/24/2022 07/08/2022-07/15/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/09/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 07/05/2023-07/12/2023 08/02/2023-08/09/2023 09/06/2023-09/13/2023</t>
   </si>
   <si>
     <t xml:space="preserve">How worried are you about household not being able to pay the full amount of the gas, oil, or electricity bills in the next month?   </t>
@@ -266,7 +266,7 @@
     <t xml:space="preserve">How worried are you about the gas or electric company turning off service, or the oil company not delivering oil in the next month?   </t>
   </si>
   <si>
-    <t>04/19/2021-04/29/2021 05/14/2021-05/28/2021 10/26/2021-11/01/2021 11/19/2021-11/23/2021 01/11/2021-01/22/2021 01/31/2022-02/07/2022 01/03/2022-01/24/2022 01/31/2022-02/11/2022 05/09/2022-05/24/2022 07/08/2022-07/15/2022  09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/09/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023 08/02/2023-08/09/2023</t>
+    <t>04/19/2021-04/29/2021 05/14/2021-05/28/2021 10/26/2021-11/01/2021 11/19/2021-11/23/2021 01/11/2021-01/22/2021 01/31/2022-02/07/2022 01/03/2022-01/24/2022 01/31/2022-02/11/2022 05/09/2022-05/24/2022 07/08/2022-07/15/2022  09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/09/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023 08/02/2023-08/09/2023 09/06/2023-09/13/2023</t>
   </si>
   <si>
     <t xml:space="preserve"> Is there anything else you would like to share about your concern about eviction or foreclosure?</t>
@@ -281,7 +281,7 @@
     <t>What would you like policymakers to know about evictions and foreclosures?</t>
   </si>
   <si>
-    <t>08/02/2021-08/26/2021 01/11/2021-01/22/2021 01/31/2022-02/07/2022 01/03/2022-01/24/2022 01/31/2022-02/11/2022 05/09/2022-05/24/2022 07/08/2022-07/15/2022 09/08/2022-09/15/2022 11/09/2022-11/16/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023 08/02/2023-08/09/2023</t>
+    <t>08/02/2021-08/26/2021 01/11/2021-01/22/2021 01/31/2022-02/07/2022 01/03/2022-01/24/2022 01/31/2022-02/11/2022 05/09/2022-05/24/2022 07/08/2022-07/15/2022 09/08/2022-09/15/2022 11/09/2022-11/16/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023 08/02/2023-08/09/2023 09/06/2023-09/13/2023</t>
   </si>
 </sst>
 </file>

--- a/_site/Data/OtherHardshipsCC.xlsx
+++ b/_site/Data/OtherHardshipsCC.xlsx
@@ -60,7 +60,7 @@
 • Not Listed (please specify) </t>
   </si>
   <si>
-    <t>01/11/2023-01/18/2023 02/16/2023-02/23/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023 08/02/2023-08/09/2023 09/06/2023-09/13/2023</t>
+    <t>01/11/2023-01/18/2023 02/16/2023-02/23/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023 08/02/2023-08/09/2023 09/06/2023-09/13/2023 10/04/2023-10/11/2023</t>
   </si>
   <si>
     <t>Is home ownership a goal for you?</t>
@@ -137,7 +137,7 @@
 • Not applicable </t>
   </si>
   <si>
-    <t>08/02/2023-08/09/2023 09/06/2023-09/13/2023</t>
+    <t>08/02/2023-08/09/2023 09/06/2023-09/13/2023 10/04/2023-10/11/2023</t>
   </si>
   <si>
     <t>In the last 30 days, you did not have enough money to pay for food to feed your household.</t>
@@ -206,7 +206,7 @@
 • Not applicable</t>
   </si>
   <si>
-    <t>04/19/2021-04/29/2021 05/14/2021-05/28/2021 10/26/2021-11/01/2021 11/19/2021-11/23/2021 01/11/2021-01/22/2021 01/31/2022-02/07/2022 01/03/2022-01/24/2022 01/31/2022-02/11/2022 05/09/2022-05/24/2022 07/08/2022-07/15/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/09/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023 08/02/2023-08/09/2023 09/06/2023-09/13/2023</t>
+    <t>04/19/2021-04/29/2021 05/14/2021-05/28/2021 10/26/2021-11/01/2021 11/19/2021-11/23/2021 01/11/2021-01/22/2021 01/31/2022-02/07/2022 01/03/2022-01/24/2022 01/31/2022-02/11/2022 05/09/2022-05/24/2022 07/08/2022-07/15/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/09/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023 08/02/2023-08/09/2023 09/06/2023-09/13/2023 10/04/2023-10/11/2023</t>
   </si>
   <si>
     <t xml:space="preserve">How worried are you about having enough money to pay for food to feed your household in the next month? </t>
@@ -218,7 +218,7 @@
     <t xml:space="preserve">How worried are you about being evicted in the next month? </t>
   </si>
   <si>
-    <t>11/19/2021-11/23/2021 01/11/2021-01/22/2021 01/31/2022-02/07/2022 01/03/2022-01/24/2022 01/31/2022-02/11/2022 05/09/2022-05/24/2022 07/08/2022-07/15/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/09/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023 08/02/2023-08/09/2023 09/06/2023-09/13/2023</t>
+    <t>11/19/2021-11/23/2021 01/11/2021-01/22/2021 01/31/2022-02/07/2022 01/03/2022-01/24/2022 01/31/2022-02/11/2022 05/09/2022-05/24/2022 07/08/2022-07/15/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/09/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023 08/02/2023-08/09/2023 09/06/2023-09/13/2023 10/04/2023-10/11/2023</t>
   </si>
   <si>
     <t>If you rent the place you currently live, have you received an eviction notice in the last 30 days?</t>
@@ -242,7 +242,7 @@
 </t>
   </si>
   <si>
-    <t>01/11/2021-01/22/2021 01/03/2022-01/24/2022 01/31/2022-02/11/2022 05/09/2022-05/24/2022 07/08/2022-07/15/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/09/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023 08/02/2023-08/09/2023 09/06/2023-09/13/2023</t>
+    <t>01/11/2021-01/22/2021 01/03/2022-01/24/2022 01/31/2022-02/11/2022 05/09/2022-05/24/2022 07/08/2022-07/15/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/09/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023 08/02/2023-08/09/2023 09/06/2023-09/13/2023 10/04/2023-10/11/2023</t>
   </si>
   <si>
     <t>If you own the home where you currently live, how worried are you about your mortgage being foreclosed on in the next month?</t>
@@ -257,7 +257,7 @@
     <t>Have you received a notice of foreclosure in the last 30 days?</t>
   </si>
   <si>
-    <t>11/19/2021-11/23/2021 01/11/2021-01/22/2021 01/31/2022-02/07/2022 01/03/2022-01/24/2022 01/31/2022-02/11/2022 05/09/2022-05/24/2022 07/08/2022-07/15/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/09/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 07/05/2023-07/12/2023 08/02/2023-08/09/2023 09/06/2023-09/13/2023</t>
+    <t>11/19/2021-11/23/2021 01/11/2021-01/22/2021 01/31/2022-02/07/2022 01/03/2022-01/24/2022 01/31/2022-02/11/2022 05/09/2022-05/24/2022 07/08/2022-07/15/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/09/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 07/05/2023-07/12/2023 08/02/2023-08/09/2023 09/06/2023-09/13/2023 10/04/2023-10/11/2023</t>
   </si>
   <si>
     <t xml:space="preserve">How worried are you about household not being able to pay the full amount of the gas, oil, or electricity bills in the next month?   </t>
@@ -266,7 +266,7 @@
     <t xml:space="preserve">How worried are you about the gas or electric company turning off service, or the oil company not delivering oil in the next month?   </t>
   </si>
   <si>
-    <t>04/19/2021-04/29/2021 05/14/2021-05/28/2021 10/26/2021-11/01/2021 11/19/2021-11/23/2021 01/11/2021-01/22/2021 01/31/2022-02/07/2022 01/03/2022-01/24/2022 01/31/2022-02/11/2022 05/09/2022-05/24/2022 07/08/2022-07/15/2022  09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/09/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023 08/02/2023-08/09/2023 09/06/2023-09/13/2023</t>
+    <t>04/19/2021-04/29/2021 05/14/2021-05/28/2021 10/26/2021-11/01/2021 11/19/2021-11/23/2021 01/11/2021-01/22/2021 01/31/2022-02/07/2022 01/03/2022-01/24/2022 01/31/2022-02/11/2022 05/09/2022-05/24/2022 07/08/2022-07/15/2022  09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/09/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023 08/02/2023-08/09/2023 09/06/2023-09/13/2023 10/04/2023-10/11/2023</t>
   </si>
   <si>
     <t xml:space="preserve"> Is there anything else you would like to share about your concern about eviction or foreclosure?</t>
@@ -281,7 +281,7 @@
     <t>What would you like policymakers to know about evictions and foreclosures?</t>
   </si>
   <si>
-    <t>08/02/2021-08/26/2021 01/11/2021-01/22/2021 01/31/2022-02/07/2022 01/03/2022-01/24/2022 01/31/2022-02/11/2022 05/09/2022-05/24/2022 07/08/2022-07/15/2022 09/08/2022-09/15/2022 11/09/2022-11/16/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023 08/02/2023-08/09/2023 09/06/2023-09/13/2023</t>
+    <t>08/02/2021-08/26/2021 01/11/2021-01/22/2021 01/31/2022-02/07/2022 01/03/2022-01/24/2022 01/31/2022-02/11/2022 05/09/2022-05/24/2022 07/08/2022-07/15/2022 09/08/2022-09/15/2022 11/09/2022-11/16/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023 08/02/2023-08/09/2023 09/06/2023-09/13/2023 10/04/2023-10/11/2023</t>
   </si>
 </sst>
 </file>

--- a/_site/Data/OtherHardshipsCC.xlsx
+++ b/_site/Data/OtherHardshipsCC.xlsx
@@ -8,8 +8,8 @@
   <definedNames/>
   <calcPr/>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="FxiKjNitGMNSQKt0XI2xHk/tAe/aTzBbHwtwGfRQ6YE="/>
+    <ext uri="GoogleSheetsCustomDataVersion1">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mjUI4X/Ham6sXh1VpuX1Pf0H5gkMw=="/>
     </ext>
   </extLst>
 </workbook>
@@ -60,7 +60,7 @@
 • Not Listed (please specify) </t>
   </si>
   <si>
-    <t>01/11/2023-01/18/2023 02/16/2023-02/23/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023 08/02/2023-08/09/2023 09/06/2023-09/13/2023 10/04/2023-10/11/2023</t>
+    <t>01/11/2023-01/18/2023 02/16/2023-02/23/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023 08/02/2023-08/09/2023 09/06/2023-09/13/2023 10/04/2023-10/11/2023 11/02/2023-11/09/2023</t>
   </si>
   <si>
     <t>Is home ownership a goal for you?</t>
@@ -137,7 +137,7 @@
 • Not applicable </t>
   </si>
   <si>
-    <t>08/02/2023-08/09/2023 09/06/2023-09/13/2023 10/04/2023-10/11/2023</t>
+    <t>08/02/2023-08/09/2023 09/06/2023-09/13/2023 10/04/2023-10/11/2023 11/02/2023-11/09/2023</t>
   </si>
   <si>
     <t>In the last 30 days, you did not have enough money to pay for food to feed your household.</t>
@@ -206,7 +206,7 @@
 • Not applicable</t>
   </si>
   <si>
-    <t>04/19/2021-04/29/2021 05/14/2021-05/28/2021 10/26/2021-11/01/2021 11/19/2021-11/23/2021 01/11/2021-01/22/2021 01/31/2022-02/07/2022 01/03/2022-01/24/2022 01/31/2022-02/11/2022 05/09/2022-05/24/2022 07/08/2022-07/15/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/09/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023 08/02/2023-08/09/2023 09/06/2023-09/13/2023 10/04/2023-10/11/2023</t>
+    <t>04/19/2021-04/29/2021 05/14/2021-05/28/2021 10/26/2021-11/01/2021 11/19/2021-11/23/2021 01/11/2021-01/22/2021 01/31/2022-02/07/2022 01/03/2022-01/24/2022 01/31/2022-02/11/2022 05/09/2022-05/24/2022 07/08/2022-07/15/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/09/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023 08/02/2023-08/09/2023 09/06/2023-09/13/2023 10/04/2023-10/11/2023 11/02/2023-11/09/2023</t>
   </si>
   <si>
     <t xml:space="preserve">How worried are you about having enough money to pay for food to feed your household in the next month? </t>
@@ -218,7 +218,7 @@
     <t xml:space="preserve">How worried are you about being evicted in the next month? </t>
   </si>
   <si>
-    <t>11/19/2021-11/23/2021 01/11/2021-01/22/2021 01/31/2022-02/07/2022 01/03/2022-01/24/2022 01/31/2022-02/11/2022 05/09/2022-05/24/2022 07/08/2022-07/15/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/09/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023 08/02/2023-08/09/2023 09/06/2023-09/13/2023 10/04/2023-10/11/2023</t>
+    <t>11/19/2021-11/23/2021 01/11/2021-01/22/2021 01/31/2022-02/07/2022 01/03/2022-01/24/2022 01/31/2022-02/11/2022 05/09/2022-05/24/2022 07/08/2022-07/15/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/09/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023 08/02/2023-08/09/2023 09/06/2023-09/13/2023 10/04/2023-10/11/2023 11/02/2023-11/09/2023</t>
   </si>
   <si>
     <t>If you rent the place you currently live, have you received an eviction notice in the last 30 days?</t>
@@ -242,7 +242,7 @@
 </t>
   </si>
   <si>
-    <t>01/11/2021-01/22/2021 01/03/2022-01/24/2022 01/31/2022-02/11/2022 05/09/2022-05/24/2022 07/08/2022-07/15/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/09/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023 08/02/2023-08/09/2023 09/06/2023-09/13/2023 10/04/2023-10/11/2023</t>
+    <t>01/11/2021-01/22/2021 01/03/2022-01/24/2022 01/31/2022-02/11/2022 05/09/2022-05/24/2022 07/08/2022-07/15/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/09/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023 08/02/2023-08/09/2023 09/06/2023-09/13/2023 10/04/2023-10/11/2023 11/02/2023-11/09/2023</t>
   </si>
   <si>
     <t>If you own the home where you currently live, how worried are you about your mortgage being foreclosed on in the next month?</t>
@@ -257,7 +257,7 @@
     <t>Have you received a notice of foreclosure in the last 30 days?</t>
   </si>
   <si>
-    <t>11/19/2021-11/23/2021 01/11/2021-01/22/2021 01/31/2022-02/07/2022 01/03/2022-01/24/2022 01/31/2022-02/11/2022 05/09/2022-05/24/2022 07/08/2022-07/15/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/09/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 07/05/2023-07/12/2023 08/02/2023-08/09/2023 09/06/2023-09/13/2023 10/04/2023-10/11/2023</t>
+    <t>11/19/2021-11/23/2021 01/11/2021-01/22/2021 01/31/2022-02/07/2022 01/03/2022-01/24/2022 01/31/2022-02/11/2022 05/09/2022-05/24/2022 07/08/2022-07/15/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/09/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 07/05/2023-07/12/2023 08/02/2023-08/09/2023 09/06/2023-09/13/2023 10/04/2023-10/11/2023 11/02/2023-11/09/2023</t>
   </si>
   <si>
     <t xml:space="preserve">How worried are you about household not being able to pay the full amount of the gas, oil, or electricity bills in the next month?   </t>
@@ -281,7 +281,7 @@
     <t>What would you like policymakers to know about evictions and foreclosures?</t>
   </si>
   <si>
-    <t>08/02/2021-08/26/2021 01/11/2021-01/22/2021 01/31/2022-02/07/2022 01/03/2022-01/24/2022 01/31/2022-02/11/2022 05/09/2022-05/24/2022 07/08/2022-07/15/2022 09/08/2022-09/15/2022 11/09/2022-11/16/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023 08/02/2023-08/09/2023 09/06/2023-09/13/2023 10/04/2023-10/11/2023</t>
+    <t>08/02/2021-08/26/2021 01/11/2021-01/22/2021 01/31/2022-02/07/2022 01/03/2022-01/24/2022 01/31/2022-02/11/2022 05/09/2022-05/24/2022 07/08/2022-07/15/2022 09/08/2022-09/15/2022 11/09/2022-11/16/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023 08/02/2023-08/09/2023 09/06/2023-09/13/2023 10/04/2023-10/11/2023 11/02/2023-11/09/2023</t>
   </si>
 </sst>
 </file>
